--- a/doc/Scale Groups.xlsx
+++ b/doc/Scale Groups.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23760" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="2135">
   <si>
     <t>Group</t>
   </si>
@@ -4988,6 +4989,1449 @@
   </si>
   <si>
     <t>[C, Db, D, Eb, F, G, Ab, Bb, C]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 3, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 2, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 2, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 1, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 2, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 1, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 1, 1, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 1, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 2, 1, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 2, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 8 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 3, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 2, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 4, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 4, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 5, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 1, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 3, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 4, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 4, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 3, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 2, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 3, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 3, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 1, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 2, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 1, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 1, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 1, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 8 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 2, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 3, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 3, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 9 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 10 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 3, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 8 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 10 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>Dorian b2</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 4, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 7 ]</t>
+  </si>
+  <si>
+    <t>Dorian Mode</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 3, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 3, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 7, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 6, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 11, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 10, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 10, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 8, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 9 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 2, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 1, 2, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 4, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 3, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 4, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 2, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 4, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 4, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 2, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 3, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 3, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>Ionian</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 1, 4, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>Jazz Minor Inverse. Javanese,  Dorian bII &amp; Hindi</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 1, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 3, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 3, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 2, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 2, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 2, 2, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 5, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 5, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 3, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 4, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 2, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 4, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 9, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 8 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 5, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 4, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 1, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 0, 3, 1, 1, 2, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 2, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 1, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 1, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 5, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 1, 5, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 2, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 3, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>Messiaen Mode 4 (all flats Eb-Gb)</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 1, 3, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 1, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 1, 4, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 2, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 2, 1, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 1, 1, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 1, 2, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 4, 2 ]</t>
+  </si>
+  <si>
+    <t>Messiaen Truncated D# Gb A#</t>
+  </si>
+  <si>
+    <t>Messiaen Truncated Gb Bb D#</t>
+  </si>
+  <si>
+    <t>Messiaen Truncated Gb Bb Eb Half Diminished</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 3, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 2, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 4, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 4, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 3, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 5, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 4, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 9 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 3, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 2, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 2, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 1, 2, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 3, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 1, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 2, 1, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 1, 1, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 9 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 1, 2, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 3, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 1, 3, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 4, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 2, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 1, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 6, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 1, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 1, 4, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 4, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 6, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 5, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 3, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 4, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 5, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 3, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 6, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 3, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 5, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 5, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 6, 1, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 1, 1, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 2, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 6, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 4, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 1, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 1, 1, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 2, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 4, 2, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 3, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 4, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 4, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 4, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 3, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 2, 5 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 5, 1, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 2, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 4, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 3, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 1, 1, 2, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 3, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 3, 2, 2, 1, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 3, 3, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 5, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 2, 2, 1, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 4, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 4, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 3, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 4, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 1, 3, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 4, 1, 4, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 3, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 1, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 2, 1, 4 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 2, 3, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 4, 1, 3, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 3, 2, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 1, 3, 1, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 5, 5, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 1, 2, 2, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 11 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 2, 1, 2, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 1, 1, 1, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 7 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 2, 1, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 2, 2, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 3, 2, 3, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 3, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 2, 2, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 1, 2, 1, 1, 1, 1, 3 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 2, 1, 1, 1, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 3, 7, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 2, 1, 1 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 7, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 2, 2, 6 ]</t>
+  </si>
+  <si>
+    <t>[ 1, 1, 2, 1, 1, 1, 2, 1, 2 ]</t>
+  </si>
+  <si>
+    <t>[ 2, 1, 2, 2, 1, 1, 2, 1 ]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>octatonic</t>
   </si>
 </sst>
 </file>
@@ -5019,7 +6463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5036,17 +6480,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5329,10 +6786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F101"/>
+  <dimension ref="B1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>2134</v>
       </c>
       <c r="F72" s="3">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -6359,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F73" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -6373,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -6387,10 +7844,10 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F75" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -6401,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -6415,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -6429,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F78" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -6443,10 +7900,10 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -6457,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -6471,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F81" s="3">
         <v>1</v>
@@ -6485,10 +7942,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -6499,10 +7956,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F83" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -6513,10 +7970,10 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -6527,10 +7984,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -6541,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -6555,10 +8012,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F87" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -6569,10 +8026,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
@@ -6583,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F89" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -6597,10 +8054,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
@@ -6611,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -6625,10 +8082,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
@@ -6639,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F93" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
@@ -6653,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
@@ -6667,10 +8124,10 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F95" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -6681,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -6695,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" s="3">
         <v>2</v>
@@ -6709,10 +8166,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -6723,10 +8180,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -6737,10 +8194,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -6751,9 +8208,17 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F102" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6770,7 +8235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+    <sheetView topLeftCell="A409" workbookViewId="0">
       <selection activeCell="F481" sqref="F481"/>
     </sheetView>
   </sheetViews>
@@ -14330,8 +15795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D612"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22916,4 +24381,6718 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C608"/>
+  <sheetViews>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>693</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>694</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>659</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>660</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>593</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>594</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>701</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="3">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>321</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>634</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>427</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>428</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B68" s="3">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>456</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>452</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>437</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>438</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>591</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>443</v>
+      </c>
+      <c r="B80" s="3">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" s="3">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B85" s="3">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>435</v>
+      </c>
+      <c r="B86" s="3">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" s="3">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>323</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>584</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>601</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>556</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>675</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>520</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>519</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>611</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>577</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>578</v>
+      </c>
+      <c r="B108" s="3">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>609</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>688</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>570</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>279</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>281</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>530</v>
+      </c>
+      <c r="B118" s="3">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>555</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>620</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>582</v>
+      </c>
+      <c r="B121" s="3">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>454</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>505</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>503</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>308</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>557</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>485</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>214</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>534</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="3">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" s="3">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>653</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="3">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>522</v>
+      </c>
+      <c r="B141" s="3">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>172</v>
+      </c>
+      <c r="B142" s="3">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="3">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="3">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="3">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>480</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>608</v>
+      </c>
+      <c r="B147" s="3">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>623</v>
+      </c>
+      <c r="B148" s="3">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>639</v>
+      </c>
+      <c r="B149" s="3">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>624</v>
+      </c>
+      <c r="B150" s="3">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>575</v>
+      </c>
+      <c r="B151" s="3">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="3">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>580</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>554</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>442</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>588</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>486</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>568</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>517</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>516</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>518</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>613</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>614</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>583</v>
+      </c>
+      <c r="B169" s="3">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>536</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>537</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>252</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>622</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>651</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>572</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>464</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>465</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" s="3">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>655</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>552</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>512</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>526</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>171</v>
+      </c>
+      <c r="B184" s="3">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>565</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>566</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>540</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>640</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>569</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>524</v>
+      </c>
+      <c r="B191" s="3">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>600</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="3">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" s="3">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>633</v>
+      </c>
+      <c r="B195" s="3">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="3">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>415</v>
+      </c>
+      <c r="B197" s="3">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>416</v>
+      </c>
+      <c r="B198" s="3">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>515</v>
+      </c>
+      <c r="B199" s="3">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>644</v>
+      </c>
+      <c r="B200" s="3">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>144</v>
+      </c>
+      <c r="B201" s="3">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="3">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>267</v>
+      </c>
+      <c r="B203" s="3">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>625</v>
+      </c>
+      <c r="B204" s="3">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>528</v>
+      </c>
+      <c r="B205" s="3">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>652</v>
+      </c>
+      <c r="B206" s="3">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>646</v>
+      </c>
+      <c r="B207" s="3">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>429</v>
+      </c>
+      <c r="B208" s="3">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>430</v>
+      </c>
+      <c r="B209" s="3">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>510</v>
+      </c>
+      <c r="B210" s="3">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>532</v>
+      </c>
+      <c r="B211" s="3">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>551</v>
+      </c>
+      <c r="B212" s="3">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>612</v>
+      </c>
+      <c r="B213" s="3">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>563</v>
+      </c>
+      <c r="B214" s="3">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>549</v>
+      </c>
+      <c r="B215" s="3">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>529</v>
+      </c>
+      <c r="B216" s="3">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>431</v>
+      </c>
+      <c r="B217" s="3">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="3">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>642</v>
+      </c>
+      <c r="B219" s="3">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>630</v>
+      </c>
+      <c r="B220" s="3">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" s="3">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>641</v>
+      </c>
+      <c r="B222" s="3">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>525</v>
+      </c>
+      <c r="B223" s="3">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>541</v>
+      </c>
+      <c r="B224" s="3">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>573</v>
+      </c>
+      <c r="B225" s="3">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>539</v>
+      </c>
+      <c r="B226" s="3">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>501</v>
+      </c>
+      <c r="B227" s="3">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>535</v>
+      </c>
+      <c r="B228" s="3">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>547</v>
+      </c>
+      <c r="B229" s="3">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>507</v>
+      </c>
+      <c r="B230" s="3">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>567</v>
+      </c>
+      <c r="B231" s="3">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>414</v>
+      </c>
+      <c r="B232" s="3">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>548</v>
+      </c>
+      <c r="B233" s="3">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>598</v>
+      </c>
+      <c r="B234" s="3">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>595</v>
+      </c>
+      <c r="B235" s="3">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>607</v>
+      </c>
+      <c r="B236" s="3">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>544</v>
+      </c>
+      <c r="B237" s="3">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>143</v>
+      </c>
+      <c r="B238" s="3">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>327</v>
+      </c>
+      <c r="B239" s="3">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>502</v>
+      </c>
+      <c r="B240" s="3">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>632</v>
+      </c>
+      <c r="B241" s="3">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>450</v>
+      </c>
+      <c r="B242" s="3">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>627</v>
+      </c>
+      <c r="B243" s="3">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>531</v>
+      </c>
+      <c r="B244" s="3">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>506</v>
+      </c>
+      <c r="B245" s="3">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>635</v>
+      </c>
+      <c r="B246" s="3">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>643</v>
+      </c>
+      <c r="B247" s="3">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>626</v>
+      </c>
+      <c r="B248" s="3">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" s="3">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>590</v>
+      </c>
+      <c r="B250" s="3">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>681</v>
+      </c>
+      <c r="B251" s="3">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>682</v>
+      </c>
+      <c r="B252" s="3">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>683</v>
+      </c>
+      <c r="B253" s="3">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>684</v>
+      </c>
+      <c r="B254" s="3">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>685</v>
+      </c>
+      <c r="B255" s="3">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>605</v>
+      </c>
+      <c r="B256" s="3">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>638</v>
+      </c>
+      <c r="B257" s="3">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>571</v>
+      </c>
+      <c r="B258" s="3">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" s="3">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>527</v>
+      </c>
+      <c r="B260" s="3">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>661</v>
+      </c>
+      <c r="B261" s="3">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>629</v>
+      </c>
+      <c r="B262" s="3">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>586</v>
+      </c>
+      <c r="B263" s="3">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>615</v>
+      </c>
+      <c r="B264" s="3">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>602</v>
+      </c>
+      <c r="B265" s="3">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>533</v>
+      </c>
+      <c r="B266" s="3">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>650</v>
+      </c>
+      <c r="B267" s="3">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>514</v>
+      </c>
+      <c r="B268" s="3">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>230</v>
+      </c>
+      <c r="B269" s="3">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>177</v>
+      </c>
+      <c r="B270" s="3">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>698</v>
+      </c>
+      <c r="B271" s="3">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>699</v>
+      </c>
+      <c r="B272" s="3">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>700</v>
+      </c>
+      <c r="B273" s="3">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>702</v>
+      </c>
+      <c r="B274" s="3">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>231</v>
+      </c>
+      <c r="B275" s="3">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>499</v>
+      </c>
+      <c r="B276" s="3">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>500</v>
+      </c>
+      <c r="B277" s="3">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>581</v>
+      </c>
+      <c r="B278" s="3">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>326</v>
+      </c>
+      <c r="B279" s="3">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="3">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>305</v>
+      </c>
+      <c r="B281" s="3">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>398</v>
+      </c>
+      <c r="B282" s="3">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>399</v>
+      </c>
+      <c r="B283" s="3">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>589</v>
+      </c>
+      <c r="B284" s="3">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>511</v>
+      </c>
+      <c r="B285" s="3">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>463</v>
+      </c>
+      <c r="B286" s="3">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="3">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>576</v>
+      </c>
+      <c r="B288" s="3">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>542</v>
+      </c>
+      <c r="B289" s="3">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>616</v>
+      </c>
+      <c r="B290" s="3">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>592</v>
+      </c>
+      <c r="B291" s="3">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>564</v>
+      </c>
+      <c r="B292" s="3">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>508</v>
+      </c>
+      <c r="B293" s="3">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>397</v>
+      </c>
+      <c r="B294" s="3">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>606</v>
+      </c>
+      <c r="B295" s="3">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>133</v>
+      </c>
+      <c r="B296" s="3">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>295</v>
+      </c>
+      <c r="B297" s="3">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" s="3">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>140</v>
+      </c>
+      <c r="B299" s="3">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>147</v>
+      </c>
+      <c r="B300" s="3">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>148</v>
+      </c>
+      <c r="B301" s="3">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>149</v>
+      </c>
+      <c r="B302" s="3">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>490</v>
+      </c>
+      <c r="B303" s="3">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>636</v>
+      </c>
+      <c r="B304" s="3">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>574</v>
+      </c>
+      <c r="B305" s="3">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>560</v>
+      </c>
+      <c r="B306" s="3">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>545</v>
+      </c>
+      <c r="B307" s="3">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>417</v>
+      </c>
+      <c r="B308" s="3">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>418</v>
+      </c>
+      <c r="B309" s="3">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>617</v>
+      </c>
+      <c r="B310" s="3">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>618</v>
+      </c>
+      <c r="B311" s="3">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>550</v>
+      </c>
+      <c r="B312" s="3">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>597</v>
+      </c>
+      <c r="B313" s="3">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>553</v>
+      </c>
+      <c r="B314" s="3">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>249</v>
+      </c>
+      <c r="B315" s="3">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>637</v>
+      </c>
+      <c r="B316" s="3">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>546</v>
+      </c>
+      <c r="B317" s="3">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>647</v>
+      </c>
+      <c r="B318" s="3">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>648</v>
+      </c>
+      <c r="B319" s="3">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>649</v>
+      </c>
+      <c r="B320" s="3">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>645</v>
+      </c>
+      <c r="B321" s="3">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>185</v>
+      </c>
+      <c r="B322" s="3">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>195</v>
+      </c>
+      <c r="B323" s="3">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>474</v>
+      </c>
+      <c r="B324" s="3">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>203</v>
+      </c>
+      <c r="B325" s="3">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>192</v>
+      </c>
+      <c r="B326" s="3">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>196</v>
+      </c>
+      <c r="B327" s="3">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>183</v>
+      </c>
+      <c r="B328" s="3">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>373</v>
+      </c>
+      <c r="B329" s="3">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>354</v>
+      </c>
+      <c r="B330" s="3">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>381</v>
+      </c>
+      <c r="B331" s="3">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>365</v>
+      </c>
+      <c r="B332" s="3">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>380</v>
+      </c>
+      <c r="B333" s="3">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>375</v>
+      </c>
+      <c r="B334" s="3">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>358</v>
+      </c>
+      <c r="B335" s="3">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>359</v>
+      </c>
+      <c r="B336" s="3">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>348</v>
+      </c>
+      <c r="B337" s="3">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>369</v>
+      </c>
+      <c r="B338" s="3">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>371</v>
+      </c>
+      <c r="B339" s="3">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>687</v>
+      </c>
+      <c r="B340" s="3">
+        <v>7</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>265</v>
+      </c>
+      <c r="B341" s="3">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>297</v>
+      </c>
+      <c r="B342" s="3">
+        <v>7</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>676</v>
+      </c>
+      <c r="B343" s="3">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>677</v>
+      </c>
+      <c r="B344" s="3">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>678</v>
+      </c>
+      <c r="B345" s="3">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>276</v>
+      </c>
+      <c r="B346" s="3">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>158</v>
+      </c>
+      <c r="B347" s="3">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>159</v>
+      </c>
+      <c r="B348" s="3">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>292</v>
+      </c>
+      <c r="B349" s="3">
+        <v>7</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>290</v>
+      </c>
+      <c r="B350" s="3">
+        <v>7</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>293</v>
+      </c>
+      <c r="B351" s="3">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>376</v>
+      </c>
+      <c r="B352" s="3">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>496</v>
+      </c>
+      <c r="B353" s="3">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>473</v>
+      </c>
+      <c r="B354" s="3">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B355" s="3">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B356" s="3">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>472</v>
+      </c>
+      <c r="B357" s="3">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>374</v>
+      </c>
+      <c r="B358" s="3">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>356</v>
+      </c>
+      <c r="B359" s="3">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>349</v>
+      </c>
+      <c r="B360" s="3">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>194</v>
+      </c>
+      <c r="B361" s="3">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>686</v>
+      </c>
+      <c r="B362" s="3">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>353</v>
+      </c>
+      <c r="B363" s="3">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>227</v>
+      </c>
+      <c r="B364" s="3">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>228</v>
+      </c>
+      <c r="B365" s="3">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>229</v>
+      </c>
+      <c r="B366" s="3">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>190</v>
+      </c>
+      <c r="B367" s="3">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>477</v>
+      </c>
+      <c r="B368" s="3">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>193</v>
+      </c>
+      <c r="B369" s="3">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>251</v>
+      </c>
+      <c r="B370" s="3">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>489</v>
+      </c>
+      <c r="B371" s="3">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>270</v>
+      </c>
+      <c r="B372" s="3">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>259</v>
+      </c>
+      <c r="B373" s="3">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>138</v>
+      </c>
+      <c r="B374" s="3">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>357</v>
+      </c>
+      <c r="B375" s="3">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>225</v>
+      </c>
+      <c r="B376" s="3">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>226</v>
+      </c>
+      <c r="B377" s="3">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>352</v>
+      </c>
+      <c r="B378" s="3">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>367</v>
+      </c>
+      <c r="B379" s="3">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>191</v>
+      </c>
+      <c r="B380" s="3">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>656</v>
+      </c>
+      <c r="B381" s="3">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>346</v>
+      </c>
+      <c r="B382" s="3">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>347</v>
+      </c>
+      <c r="B383" s="3">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" s="3">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>223</v>
+      </c>
+      <c r="B385" s="3">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>224</v>
+      </c>
+      <c r="B386" s="3">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>250</v>
+      </c>
+      <c r="B387" s="3">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>188</v>
+      </c>
+      <c r="B388" s="3">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>658</v>
+      </c>
+      <c r="B389" s="3">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>445</v>
+      </c>
+      <c r="B390" s="3">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>448</v>
+      </c>
+      <c r="B391" s="3">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>150</v>
+      </c>
+      <c r="B392" s="3">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>451</v>
+      </c>
+      <c r="B393" s="3">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>291</v>
+      </c>
+      <c r="B394" s="3">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>162</v>
+      </c>
+      <c r="B395" s="3">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>360</v>
+      </c>
+      <c r="B396" s="3">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>107</v>
+      </c>
+      <c r="B397" s="3">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>439</v>
+      </c>
+      <c r="B398" s="3">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>441</v>
+      </c>
+      <c r="B399" s="3">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>258</v>
+      </c>
+      <c r="B400" s="3">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B401" s="3">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>440</v>
+      </c>
+      <c r="B402" s="3">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>453</v>
+      </c>
+      <c r="B403" s="3">
+        <v>7</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>382</v>
+      </c>
+      <c r="B404" s="3">
+        <v>7</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>378</v>
+      </c>
+      <c r="B405" s="3">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>271</v>
+      </c>
+      <c r="B406" s="3">
+        <v>7</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>272</v>
+      </c>
+      <c r="B407" s="3">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>274</v>
+      </c>
+      <c r="B408" s="3">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>657</v>
+      </c>
+      <c r="B409" s="3">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>303</v>
+      </c>
+      <c r="B410" s="3">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>368</v>
+      </c>
+      <c r="B411" s="3">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>330</v>
+      </c>
+      <c r="B412" s="3">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>462</v>
+      </c>
+      <c r="B413" s="3">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>325</v>
+      </c>
+      <c r="B414" s="3">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>332</v>
+      </c>
+      <c r="B415" s="3">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>256</v>
+      </c>
+      <c r="B416" s="3">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>466</v>
+      </c>
+      <c r="B417" s="3">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B418" s="3">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>207</v>
+      </c>
+      <c r="B419" s="3">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>366</v>
+      </c>
+      <c r="B420" s="3">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>461</v>
+      </c>
+      <c r="B421" s="3">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>257</v>
+      </c>
+      <c r="B422" s="3">
+        <v>7</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>603</v>
+      </c>
+      <c r="B423" s="3">
+        <v>7</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>362</v>
+      </c>
+      <c r="B424" s="3">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>306</v>
+      </c>
+      <c r="B425" s="3">
+        <v>7</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>233</v>
+      </c>
+      <c r="B426" s="3">
+        <v>7</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>363</v>
+      </c>
+      <c r="B427" s="3">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>364</v>
+      </c>
+      <c r="B428" s="3">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>301</v>
+      </c>
+      <c r="B429" s="3">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>309</v>
+      </c>
+      <c r="B430" s="3">
+        <v>7</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>350</v>
+      </c>
+      <c r="B431" s="3">
+        <v>7</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>298</v>
+      </c>
+      <c r="B432" s="3">
+        <v>7</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>289</v>
+      </c>
+      <c r="B433" s="3">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>197</v>
+      </c>
+      <c r="B434" s="3">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>476</v>
+      </c>
+      <c r="B435" s="3">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>631</v>
+      </c>
+      <c r="B436" s="3">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>674</v>
+      </c>
+      <c r="B437" s="3">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>384</v>
+      </c>
+      <c r="B438" s="3">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>370</v>
+      </c>
+      <c r="B439" s="3">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>355</v>
+      </c>
+      <c r="B440" s="3">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>587</v>
+      </c>
+      <c r="B441" s="3">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>654</v>
+      </c>
+      <c r="B442" s="3">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>269</v>
+      </c>
+      <c r="B443" s="3">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>184</v>
+      </c>
+      <c r="B444" s="3">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>189</v>
+      </c>
+      <c r="B445" s="3">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>202</v>
+      </c>
+      <c r="B446" s="3">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>377</v>
+      </c>
+      <c r="B447" s="3">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>361</v>
+      </c>
+      <c r="B448" s="3">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>351</v>
+      </c>
+      <c r="B449" s="3">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>273</v>
+      </c>
+      <c r="B450" s="3">
+        <v>7</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>296</v>
+      </c>
+      <c r="B451" s="3">
+        <v>7</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>372</v>
+      </c>
+      <c r="B452" s="3">
+        <v>7</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>104</v>
+      </c>
+      <c r="B453" s="3">
+        <v>7</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>105</v>
+      </c>
+      <c r="B454" s="3">
+        <v>7</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>106</v>
+      </c>
+      <c r="B455" s="3">
+        <v>7</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>146</v>
+      </c>
+      <c r="B456" s="3">
+        <v>7</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>160</v>
+      </c>
+      <c r="B457" s="3">
+        <v>7</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>561</v>
+      </c>
+      <c r="B458" s="3">
+        <v>7</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>562</v>
+      </c>
+      <c r="B459" s="3">
+        <v>7</v>
+      </c>
+      <c r="C459" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>199</v>
+      </c>
+      <c r="B460" s="3">
+        <v>8</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>487</v>
+      </c>
+      <c r="B461" s="3">
+        <v>8</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>488</v>
+      </c>
+      <c r="B462" s="3">
+        <v>8</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>261</v>
+      </c>
+      <c r="B463" s="3">
+        <v>8</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>262</v>
+      </c>
+      <c r="B464" s="3">
+        <v>8</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>263</v>
+      </c>
+      <c r="B465" s="3">
+        <v>8</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>102</v>
+      </c>
+      <c r="B466" s="3">
+        <v>8</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>103</v>
+      </c>
+      <c r="B467" s="3">
+        <v>8</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>410</v>
+      </c>
+      <c r="B468" s="3">
+        <v>8</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B469" s="3">
+        <v>8</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>411</v>
+      </c>
+      <c r="B470" s="3">
+        <v>8</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>275</v>
+      </c>
+      <c r="B471" s="3">
+        <v>8</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>419</v>
+      </c>
+      <c r="B472" s="3">
+        <v>8</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>392</v>
+      </c>
+      <c r="B473" s="3">
+        <v>8</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>409</v>
+      </c>
+      <c r="B474" s="3">
+        <v>8</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>413</v>
+      </c>
+      <c r="B475" s="3">
+        <v>8</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>379</v>
+      </c>
+      <c r="B476" s="3">
+        <v>8</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>673</v>
+      </c>
+      <c r="B477" s="3">
+        <v>8</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>671</v>
+      </c>
+      <c r="B478" s="3">
+        <v>8</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>672</v>
+      </c>
+      <c r="B479" s="3">
+        <v>8</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>344</v>
+      </c>
+      <c r="B480" s="3">
+        <v>8</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>345</v>
+      </c>
+      <c r="B481" s="3">
+        <v>8</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>493</v>
+      </c>
+      <c r="B482" s="3">
+        <v>8</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>284</v>
+      </c>
+      <c r="B483" s="3">
+        <v>8</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>285</v>
+      </c>
+      <c r="B484" s="3">
+        <v>8</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>142</v>
+      </c>
+      <c r="B485" s="3">
+        <v>8</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>254</v>
+      </c>
+      <c r="B486" s="3">
+        <v>8</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>402</v>
+      </c>
+      <c r="B487" s="3">
+        <v>8</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>668</v>
+      </c>
+      <c r="B488" s="3">
+        <v>8</v>
+      </c>
+      <c r="C488" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>669</v>
+      </c>
+      <c r="B489" s="3">
+        <v>8</v>
+      </c>
+      <c r="C489" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>670</v>
+      </c>
+      <c r="B490" s="3">
+        <v>8</v>
+      </c>
+      <c r="C490" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>310</v>
+      </c>
+      <c r="B491" s="3">
+        <v>8</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>311</v>
+      </c>
+      <c r="B492" s="3">
+        <v>8</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>312</v>
+      </c>
+      <c r="B493" s="3">
+        <v>8</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>313</v>
+      </c>
+      <c r="B494" s="3">
+        <v>8</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>491</v>
+      </c>
+      <c r="B495" s="3">
+        <v>8</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>492</v>
+      </c>
+      <c r="B496" s="3">
+        <v>8</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>253</v>
+      </c>
+      <c r="B497" s="3">
+        <v>8</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>388</v>
+      </c>
+      <c r="B498" s="3">
+        <v>8</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>394</v>
+      </c>
+      <c r="B499" s="3">
+        <v>8</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>497</v>
+      </c>
+      <c r="B500" s="3">
+        <v>8</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>498</v>
+      </c>
+      <c r="B501" s="3">
+        <v>8</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>475</v>
+      </c>
+      <c r="B502" s="3">
+        <v>8</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>604</v>
+      </c>
+      <c r="B503" s="3">
+        <v>8</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>509</v>
+      </c>
+      <c r="B504" s="3">
+        <v>8</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>222</v>
+      </c>
+      <c r="B505" s="3">
+        <v>8</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>478</v>
+      </c>
+      <c r="B506" s="3">
+        <v>8</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>621</v>
+      </c>
+      <c r="B507" s="3">
+        <v>8</v>
+      </c>
+      <c r="C507" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>343</v>
+      </c>
+      <c r="B508" s="3">
+        <v>8</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>446</v>
+      </c>
+      <c r="B509" s="3">
+        <v>8</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>447</v>
+      </c>
+      <c r="B510" s="3">
+        <v>8</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>302</v>
+      </c>
+      <c r="B511" s="3">
+        <v>8</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>299</v>
+      </c>
+      <c r="B512" s="3">
+        <v>8</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>108</v>
+      </c>
+      <c r="B513" s="3">
+        <v>8</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>151</v>
+      </c>
+      <c r="B514" s="3">
+        <v>8</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>134</v>
+      </c>
+      <c r="B515" s="3">
+        <v>8</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>208</v>
+      </c>
+      <c r="B516" s="3">
+        <v>8</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>387</v>
+      </c>
+      <c r="B517" s="3">
+        <v>8</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>385</v>
+      </c>
+      <c r="B518" s="3">
+        <v>8</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>215</v>
+      </c>
+      <c r="B519" s="3">
+        <v>8</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>216</v>
+      </c>
+      <c r="B520" s="3">
+        <v>8</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>705</v>
+      </c>
+      <c r="B521" s="3">
+        <v>8</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>695</v>
+      </c>
+      <c r="B522" s="3">
+        <v>8</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>696</v>
+      </c>
+      <c r="B523" s="3">
+        <v>8</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>579</v>
+      </c>
+      <c r="B524" s="3">
+        <v>8</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>521</v>
+      </c>
+      <c r="B525" s="3">
+        <v>8</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>449</v>
+      </c>
+      <c r="B526" s="3">
+        <v>8</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>331</v>
+      </c>
+      <c r="B527" s="3">
+        <v>8</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>395</v>
+      </c>
+      <c r="B528" s="3">
+        <v>8</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>421</v>
+      </c>
+      <c r="B529" s="3">
+        <v>8</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>324</v>
+      </c>
+      <c r="B530" s="3">
+        <v>8</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>213</v>
+      </c>
+      <c r="B531" s="3">
+        <v>8</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>420</v>
+      </c>
+      <c r="B532" s="3">
+        <v>8</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>304</v>
+      </c>
+      <c r="B533" s="3">
+        <v>8</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>412</v>
+      </c>
+      <c r="B534" s="3">
+        <v>8</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>389</v>
+      </c>
+      <c r="B535" s="3">
+        <v>9</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>396</v>
+      </c>
+      <c r="B536" s="3">
+        <v>9</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>198</v>
+      </c>
+      <c r="B537" s="3">
+        <v>9</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>689</v>
+      </c>
+      <c r="B538" s="3">
+        <v>9</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>181</v>
+      </c>
+      <c r="B539" s="3">
+        <v>9</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>182</v>
+      </c>
+      <c r="B540" s="3">
+        <v>9</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>703</v>
+      </c>
+      <c r="B541" s="3">
+        <v>9</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>704</v>
+      </c>
+      <c r="B542" s="3">
+        <v>9</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>403</v>
+      </c>
+      <c r="B543" s="3">
+        <v>9</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>201</v>
+      </c>
+      <c r="B544" s="3">
+        <v>9</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>178</v>
+      </c>
+      <c r="B545" s="3">
+        <v>9</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>680</v>
+      </c>
+      <c r="B546" s="3">
+        <v>9</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>690</v>
+      </c>
+      <c r="B547" s="3">
+        <v>9</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>691</v>
+      </c>
+      <c r="B548" s="3">
+        <v>9</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>692</v>
+      </c>
+      <c r="B549" s="3">
+        <v>9</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>245</v>
+      </c>
+      <c r="B550" s="3">
+        <v>9</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>246</v>
+      </c>
+      <c r="B551" s="3">
+        <v>9</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>247</v>
+      </c>
+      <c r="B552" s="3">
+        <v>9</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>467</v>
+      </c>
+      <c r="B553" s="3">
+        <v>9</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>468</v>
+      </c>
+      <c r="B554" s="3">
+        <v>9</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>469</v>
+      </c>
+      <c r="B555" s="3">
+        <v>9</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>470</v>
+      </c>
+      <c r="B556" s="3">
+        <v>9</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>471</v>
+      </c>
+      <c r="B557" s="3">
+        <v>9</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>145</v>
+      </c>
+      <c r="B558" s="3">
+        <v>9</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>268</v>
+      </c>
+      <c r="B559" s="3">
+        <v>9</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>163</v>
+      </c>
+      <c r="B560" s="3">
+        <v>9</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>391</v>
+      </c>
+      <c r="B561" s="3">
+        <v>9</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>404</v>
+      </c>
+      <c r="B562" s="3">
+        <v>9</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>405</v>
+      </c>
+      <c r="B563" s="3">
+        <v>9</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>406</v>
+      </c>
+      <c r="B564" s="3">
+        <v>9</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>407</v>
+      </c>
+      <c r="B565" s="3">
+        <v>9</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>408</v>
+      </c>
+      <c r="B566" s="3">
+        <v>9</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>286</v>
+      </c>
+      <c r="B567" s="3">
+        <v>9</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>243</v>
+      </c>
+      <c r="B568" s="3">
+        <v>9</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>244</v>
+      </c>
+      <c r="B569" s="3">
+        <v>9</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>307</v>
+      </c>
+      <c r="B570" s="3">
+        <v>9</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>596</v>
+      </c>
+      <c r="B571" s="3">
+        <v>9</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>179</v>
+      </c>
+      <c r="B572" s="3">
+        <v>10</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>180</v>
+      </c>
+      <c r="B573" s="3">
+        <v>10</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>129</v>
+      </c>
+      <c r="B574" s="3">
+        <v>10</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>628</v>
+      </c>
+      <c r="B575" s="3">
+        <v>10</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>422</v>
+      </c>
+      <c r="B576" s="3">
+        <v>10</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>424</v>
+      </c>
+      <c r="B577" s="3">
+        <v>10</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>127</v>
+      </c>
+      <c r="B578" s="3">
+        <v>10</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>481</v>
+      </c>
+      <c r="B579" s="3">
+        <v>10</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>122</v>
+      </c>
+      <c r="B580" s="3">
+        <v>10</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>425</v>
+      </c>
+      <c r="B581" s="3">
+        <v>10</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>423</v>
+      </c>
+      <c r="B582" s="3">
+        <v>10</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>121</v>
+      </c>
+      <c r="B583" s="3">
+        <v>10</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>125</v>
+      </c>
+      <c r="B584" s="3">
+        <v>10</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>679</v>
+      </c>
+      <c r="B585" s="3">
+        <v>10</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>124</v>
+      </c>
+      <c r="B586" s="3">
+        <v>10</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>118</v>
+      </c>
+      <c r="B587" s="3">
+        <v>10</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>119</v>
+      </c>
+      <c r="B588" s="3">
+        <v>10</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>482</v>
+      </c>
+      <c r="B589" s="3">
+        <v>10</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>116</v>
+      </c>
+      <c r="B590" s="3">
+        <v>10</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>455</v>
+      </c>
+      <c r="B591" s="3">
+        <v>10</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>426</v>
+      </c>
+      <c r="B592" s="3">
+        <v>10</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>115</v>
+      </c>
+      <c r="B593" s="3">
+        <v>10</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>315</v>
+      </c>
+      <c r="B594" s="3">
+        <v>10</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>112</v>
+      </c>
+      <c r="B595" s="3">
+        <v>11</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>206</v>
+      </c>
+      <c r="B596" s="3">
+        <v>11</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>113</v>
+      </c>
+      <c r="B597" s="3">
+        <v>11</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>110</v>
+      </c>
+      <c r="B598" s="3">
+        <v>11</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>111</v>
+      </c>
+      <c r="B599" s="3">
+        <v>11</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>130</v>
+      </c>
+      <c r="B600" s="3">
+        <v>11</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>109</v>
+      </c>
+      <c r="B601" s="3">
+        <v>11</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>128</v>
+      </c>
+      <c r="B602" s="3">
+        <v>11</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>126</v>
+      </c>
+      <c r="B603" s="3">
+        <v>11</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>120</v>
+      </c>
+      <c r="B604" s="3">
+        <v>11</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>123</v>
+      </c>
+      <c r="B605" s="3">
+        <v>11</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>117</v>
+      </c>
+      <c r="B606" s="3">
+        <v>11</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>114</v>
+      </c>
+      <c r="B607" s="3">
+        <v>11</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>176</v>
+      </c>
+      <c r="B608" s="3">
+        <v>12</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C608">
+    <sortCondition ref="B2:B608"/>
+    <sortCondition ref="C2:C608"/>
+    <sortCondition ref="A2:A608"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>